--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA02_부동산공시가격_배혜빈\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\RPA_RE_5\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA554F6-A3E7-43CB-B8B1-E01C667CD9B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -162,12 +161,6 @@
     <t>ProcessABCQueue</t>
   </si>
   <si>
-    <t>부서코드</t>
-  </si>
-  <si>
-    <t>과제명</t>
-  </si>
-  <si>
     <t>All Kill</t>
   </si>
   <si>
@@ -226,14 +219,53 @@
   </si>
   <si>
     <t>Data\Input\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[부동산공시] {0} 수행결과_배혜빈</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+    &lt;span&gt;안녕하세요&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;오늘날짜 &lt;b&gt;&lt;i&gt;{0}&lt;/i&gt;&lt;/b&gt; 부동산 공시가격 수행 결과 송부드립니다.&lt;/span&gt;
+&lt;/div&gt;
+&lt;table border='1'&gt;
+    &lt;tr&gt;
+        &lt;th&gt;총건수&lt;/th&gt;
+        &lt;th&gt;성공건수&lt;/th&gt;
+        &lt;th&gt;실패건수&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+        &lt;td&gt;{1}&lt;/td&gt;
+        &lt;td&gt;{2}&lt;/td&gt;
+        &lt;td&gt;{3}&lt;/td&gt;
+    &lt;/tr&gt;
+&lt;/table&gt;
+&lt;div&gt;
+    &lt;p&gt;실패 리스트 : {4}&lt;/p&gt;
+&lt;/div&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -269,15 +301,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -358,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,9 +396,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -383,6 +403,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,13 +417,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{402D855B-E31E-4A60-907C-14EE3E814244}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -711,11 +731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -761,101 +781,105 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
+      <c r="C4" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:26" ht="345" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>58</v>
+      <c r="A10" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="9">
         <f ca="1">NOW()</f>
-        <v>45393.542843402778</v>
+        <v>45399.00604803241</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>62</v>
+      <c r="A13" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4"/>
     </row>
@@ -866,20 +890,30 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:3" ht="27">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="4"/>
@@ -888,40 +922,18 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27">
-      <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1896,14 +1908,11 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A11:B11"/>
   </mergeCells>
@@ -1914,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,7 +3086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
